--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_20-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_20-54.xlsx
@@ -245,6 +245,12 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>KEFLEX 500MG 12 CAP</t>
   </si>
   <si>
@@ -276,9 +282,6 @@
   </si>
   <si>
     <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
   </si>
   <si>
     <t>NAPIZOLE 40 MG VIAL</t>
@@ -2468,17 +2471,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2486,7 +2489,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2494,13 +2497,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2512,7 +2515,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2520,17 +2523,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2538,7 +2541,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2546,17 +2549,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2572,17 +2575,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2590,7 +2593,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2598,13 +2601,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2616,7 +2619,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2624,13 +2627,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2642,7 +2645,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2650,17 +2653,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2668,7 +2671,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2676,17 +2679,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2694,7 +2697,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2702,13 +2705,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2728,13 +2731,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2754,17 +2757,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2780,17 +2783,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2806,17 +2809,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2832,17 +2835,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2858,17 +2861,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2884,17 +2887,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2902,7 +2905,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2910,17 +2913,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2936,17 +2939,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2954,7 +2957,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2962,17 +2965,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2994,11 +2997,11 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3014,17 +3017,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3046,7 +3049,7 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3066,17 +3069,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3084,7 +3087,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3092,17 +3095,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3124,7 +3127,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3150,7 +3153,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3170,13 +3173,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3196,13 +3199,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3222,13 +3225,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3248,13 +3251,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3274,13 +3277,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3300,17 +3303,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3318,7 +3321,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3326,17 +3329,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3352,17 +3355,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3378,13 +3381,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3404,13 +3407,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3430,13 +3433,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3448,7 +3451,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3456,13 +3459,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3488,11 +3491,11 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3508,17 +3511,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3534,17 +3537,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3560,17 +3563,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3586,17 +3589,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3612,17 +3615,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3638,17 +3641,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3664,17 +3667,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3690,17 +3693,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3716,13 +3719,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3742,17 +3745,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3768,17 +3771,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3786,7 +3789,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3794,13 +3797,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3820,13 +3823,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3846,17 +3849,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3864,7 +3867,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3872,17 +3875,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3890,7 +3893,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3898,13 +3901,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3924,17 +3927,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3942,7 +3945,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3950,17 +3953,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3976,17 +3979,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3994,7 +3997,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4002,17 +4005,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4028,13 +4031,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4054,13 +4057,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4080,13 +4083,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4106,17 +4109,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4132,17 +4135,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4150,7 +4153,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4158,17 +4161,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4184,17 +4187,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4210,13 +4213,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4228,7 +4231,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4236,13 +4239,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4262,51 +4265,77 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="26.25" customHeight="1">
-      <c r="K127" s="11">
-        <v>7083.9399999999996</v>
-      </c>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="12">
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="6">
+        <v>124</v>
+      </c>
+      <c t="s" r="B127" s="7">
         <v>162</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c t="s" r="F128" s="13">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c t="s" r="H127" s="8">
+        <v>52</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="9">
+        <v>30</v>
+      </c>
+      <c r="M127" s="9"/>
+      <c r="N127" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" customHeight="1">
+      <c r="K128" s="11">
+        <v>7110.9399999999996</v>
+      </c>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c t="s" r="A129" s="12">
         <v>163</v>
       </c>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14"/>
-      <c t="s" r="I128" s="15">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c t="s" r="F129" s="13">
         <v>164</v>
       </c>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+      <c t="s" r="I129" s="15">
+        <v>165</v>
+      </c>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="380">
+  <mergeCells count="383">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4683,10 +4712,13 @@
     <mergeCell ref="B126:G126"/>
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
-    <mergeCell ref="K127:N127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="I128:N128"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="I129:N129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
